--- a/Unemployment and Crime.xlsx
+++ b/Unemployment and Crime.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\latri\Desktop\SCI SCHOOLING\FINAL PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\latri\Desktop\SCI SCHOOLING\FINAL PROJECT\Woz-U-final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DC1CC30-5C2B-4D08-8C52-EE658E2AA975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F0A75C1-0104-49CE-A3BE-5EE849273300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FBC98A6-136A-40B4-8E17-D9DB185E06C1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>Murder</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>National  Unemployment</t>
+  </si>
+  <si>
+    <t>Total Crime Per Month</t>
   </si>
 </sst>
 </file>
@@ -469,19 +472,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E8AD21-D23D-42AF-8591-4AA609C8E229}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="J2" sqref="J2:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -510,13 +515,16 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -545,13 +553,17 @@
         <v>2418</v>
       </c>
       <c r="J2">
+        <f>SUM(C2:I2)</f>
+        <v>30738</v>
+      </c>
+      <c r="K2">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.08</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -580,13 +592,17 @@
         <v>1872</v>
       </c>
       <c r="J3">
+        <f t="shared" ref="J3:J37" si="0">SUM(C3:I3)</f>
+        <v>24404</v>
+      </c>
+      <c r="K3">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -615,13 +631,17 @@
         <v>2129</v>
       </c>
       <c r="J4">
+        <f t="shared" si="0"/>
+        <v>27110</v>
+      </c>
+      <c r="K4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -650,13 +670,17 @@
         <v>2035</v>
       </c>
       <c r="J5">
+        <f t="shared" si="0"/>
+        <v>28514</v>
+      </c>
+      <c r="K5">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -685,13 +709,17 @@
         <v>2105</v>
       </c>
       <c r="J6">
+        <f t="shared" si="0"/>
+        <v>31714</v>
+      </c>
+      <c r="K6">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -720,13 +748,17 @@
         <v>2355</v>
       </c>
       <c r="J7">
+        <f t="shared" si="0"/>
+        <v>31188</v>
+      </c>
+      <c r="K7">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -755,13 +787,17 @@
         <v>2653</v>
       </c>
       <c r="J8">
+        <f t="shared" si="0"/>
+        <v>32715</v>
+      </c>
+      <c r="K8">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -790,13 +826,17 @@
         <v>2383</v>
       </c>
       <c r="J9">
+        <f t="shared" si="0"/>
+        <v>32054</v>
+      </c>
+      <c r="K9">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -825,13 +865,17 @@
         <v>2120</v>
       </c>
       <c r="J10">
+        <f t="shared" si="0"/>
+        <v>31096</v>
+      </c>
+      <c r="K10">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -860,13 +904,17 @@
         <v>2166</v>
       </c>
       <c r="J11">
+        <f t="shared" si="0"/>
+        <v>31469</v>
+      </c>
+      <c r="K11">
         <v>0.08</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -895,13 +943,17 @@
         <v>1938</v>
       </c>
       <c r="J12">
+        <f t="shared" si="0"/>
+        <v>28805</v>
+      </c>
+      <c r="K12">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -930,13 +982,17 @@
         <v>2141</v>
       </c>
       <c r="J13">
+        <f t="shared" si="0"/>
+        <v>29493</v>
+      </c>
+      <c r="K13">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -965,13 +1021,17 @@
         <v>2379</v>
       </c>
       <c r="J14">
+        <f t="shared" si="0"/>
+        <v>29618</v>
+      </c>
+      <c r="K14">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1000,13 +1060,17 @@
         <v>1878</v>
       </c>
       <c r="J15">
+        <f t="shared" si="0"/>
+        <v>24462</v>
+      </c>
+      <c r="K15">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1035,13 +1099,17 @@
         <v>2067</v>
       </c>
       <c r="J16">
+        <f t="shared" si="0"/>
+        <v>28555</v>
+      </c>
+      <c r="K16">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1070,13 +1138,17 @@
         <v>2197</v>
       </c>
       <c r="J17">
+        <f t="shared" si="0"/>
+        <v>29963</v>
+      </c>
+      <c r="K17">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1105,13 +1177,17 @@
         <v>2279</v>
       </c>
       <c r="J18">
+        <f t="shared" si="0"/>
+        <v>32479</v>
+      </c>
+      <c r="K18">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1140,13 +1216,17 @@
         <v>2329</v>
       </c>
       <c r="J19">
+        <f t="shared" si="0"/>
+        <v>32295</v>
+      </c>
+      <c r="K19">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1175,13 +1255,17 @@
         <v>2591</v>
       </c>
       <c r="J20">
+        <f t="shared" si="0"/>
+        <v>36305</v>
+      </c>
+      <c r="K20">
         <v>0.08</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1210,13 +1294,17 @@
         <v>2213</v>
       </c>
       <c r="J21">
+        <f t="shared" si="0"/>
+        <v>33172</v>
+      </c>
+      <c r="K21">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1245,13 +1333,17 @@
         <v>2447</v>
       </c>
       <c r="J22">
+        <f t="shared" si="0"/>
+        <v>32011</v>
+      </c>
+      <c r="K22">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1280,13 +1372,17 @@
         <v>2076</v>
       </c>
       <c r="J23">
+        <f t="shared" si="0"/>
+        <v>29367</v>
+      </c>
+      <c r="K23">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1315,13 +1411,17 @@
         <v>2197</v>
       </c>
       <c r="J24">
+        <f t="shared" si="0"/>
+        <v>27577</v>
+      </c>
+      <c r="K24">
         <v>6.3E-2</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1350,13 +1450,17 @@
         <v>2188</v>
       </c>
       <c r="J25">
+        <f t="shared" si="0"/>
+        <v>29120</v>
+      </c>
+      <c r="K25">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1385,13 +1489,17 @@
         <v>2308</v>
       </c>
       <c r="J26">
+        <f t="shared" si="0"/>
+        <v>29642</v>
+      </c>
+      <c r="K26">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1420,13 +1528,17 @@
         <v>1821</v>
       </c>
       <c r="J27">
+        <f t="shared" si="0"/>
+        <v>21710</v>
+      </c>
+      <c r="K27">
         <v>6.3E-2</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1455,13 +1567,17 @@
         <v>2052</v>
       </c>
       <c r="J28">
+        <f t="shared" si="0"/>
+        <v>25900</v>
+      </c>
+      <c r="K28">
         <v>0.06</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1490,13 +1606,17 @@
         <v>1905</v>
       </c>
       <c r="J29">
+        <f t="shared" si="0"/>
+        <v>26451</v>
+      </c>
+      <c r="K29">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1525,13 +1645,17 @@
         <v>2190</v>
       </c>
       <c r="J30">
+        <f t="shared" si="0"/>
+        <v>28832</v>
+      </c>
+      <c r="K30">
         <v>6.2E-2</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1560,13 +1684,17 @@
         <v>2387</v>
       </c>
       <c r="J31">
+        <f t="shared" si="0"/>
+        <v>29032</v>
+      </c>
+      <c r="K31">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -1595,13 +1723,17 @@
         <v>2433</v>
       </c>
       <c r="J32">
+        <f t="shared" si="0"/>
+        <v>30181</v>
+      </c>
+      <c r="K32">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1630,13 +1762,17 @@
         <v>2422</v>
       </c>
       <c r="J33">
+        <f t="shared" si="0"/>
+        <v>29362</v>
+      </c>
+      <c r="K33">
         <v>0.06</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1665,13 +1801,17 @@
         <v>2210</v>
       </c>
       <c r="J34">
+        <f t="shared" si="0"/>
+        <v>29153</v>
+      </c>
+      <c r="K34">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1700,13 +1840,17 @@
         <v>2089</v>
       </c>
       <c r="J35">
+        <f t="shared" si="0"/>
+        <v>28359</v>
+      </c>
+      <c r="K35">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1735,13 +1879,17 @@
         <v>1958</v>
       </c>
       <c r="J36">
+        <f t="shared" si="0"/>
+        <v>27005</v>
+      </c>
+      <c r="K36">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -1770,9 +1918,13 @@
         <v>1901</v>
       </c>
       <c r="J37">
+        <f t="shared" si="0"/>
+        <v>28881</v>
+      </c>
+      <c r="K37">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>0.05</v>
       </c>
     </row>

--- a/Unemployment and Crime.xlsx
+++ b/Unemployment and Crime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\latri\Desktop\SCI SCHOOLING\FINAL PROJECT\Woz-U-final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F0A75C1-0104-49CE-A3BE-5EE849273300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CD5906-CD86-4800-86C4-5FF31701FE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FBC98A6-136A-40B4-8E17-D9DB185E06C1}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Larceny</t>
   </si>
   <si>
-    <t>Vehicle Theft</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -99,13 +96,16 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Unemployment in Georgia</t>
-  </si>
-  <si>
-    <t>National  Unemployment</t>
-  </si>
-  <si>
-    <t>Total Crime Per Month</t>
+    <t>TotalCrime</t>
+  </si>
+  <si>
+    <t>Unemploy_Georgia</t>
+  </si>
+  <si>
+    <t>Nat_Unemploy</t>
+  </si>
+  <si>
+    <t>Vehicle_Theft</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J37"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,10 +488,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
         <v>21</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>2013</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>2013</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>2013</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>2013</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>2013</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>2013</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>2013</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>2013</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>2013</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>2013</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>2013</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>2013</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>2014</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>2014</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>2014</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>2014</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>2014</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>2014</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21">
         <v>2014</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22">
         <v>2014</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23">
         <v>2014</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24">
         <v>2014</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25">
         <v>2014</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <v>2015</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27">
         <v>2015</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28">
         <v>2015</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29">
         <v>2015</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30">
         <v>2015</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>2015</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32">
         <v>2015</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33">
         <v>2015</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34">
         <v>2015</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35">
         <v>2015</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36">
         <v>2015</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37">
         <v>2015</v>
